--- a/pred_ohlcv/54/2019-10-25 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-25 FAB ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H245"/>
+  <dimension ref="A1:I225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,7 +413,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5.91</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
@@ -417,15 +422,18 @@
         <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>5.85</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>14854.396</v>
       </c>
       <c r="G2" t="n">
-        <v>5.928166666666667</v>
+        <v>5.926166666666666</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>5.97</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>5.96</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>85416.2458</v>
+        <v>400</v>
       </c>
       <c r="G3" t="n">
-        <v>5.929666666666667</v>
+        <v>5.928166666666667</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.97</v>
+        <v>6.01</v>
       </c>
       <c r="C4" t="n">
         <v>5.97</v>
       </c>
       <c r="D4" t="n">
-        <v>5.97</v>
+        <v>6.01</v>
       </c>
       <c r="E4" t="n">
-        <v>5.97</v>
+        <v>5.96</v>
       </c>
       <c r="F4" t="n">
-        <v>69411</v>
+        <v>85416.2458</v>
       </c>
       <c r="G4" t="n">
-        <v>5.931166666666668</v>
+        <v>5.929666666666667</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="C5" t="n">
-        <v>6.01</v>
+        <v>5.97</v>
       </c>
       <c r="D5" t="n">
-        <v>6.01</v>
+        <v>5.97</v>
       </c>
       <c r="E5" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="F5" t="n">
-        <v>7303.3026</v>
+        <v>69411</v>
       </c>
       <c r="G5" t="n">
-        <v>5.934000000000001</v>
+        <v>5.931166666666668</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.02</v>
+        <v>5.96</v>
       </c>
       <c r="C6" t="n">
-        <v>6.02</v>
+        <v>6.01</v>
       </c>
       <c r="D6" t="n">
-        <v>6.02</v>
+        <v>6.01</v>
       </c>
       <c r="E6" t="n">
-        <v>6.02</v>
+        <v>5.96</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>7303.3026</v>
       </c>
       <c r="G6" t="n">
-        <v>5.936000000000002</v>
+        <v>5.934000000000001</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -553,9 +573,12 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>5.938000000000001</v>
+        <v>5.936000000000002</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -579,9 +602,12 @@
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>5.940000000000001</v>
+        <v>5.938000000000001</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.95</v>
+        <v>6.02</v>
       </c>
       <c r="C9" t="n">
-        <v>5.94</v>
+        <v>6.02</v>
       </c>
       <c r="D9" t="n">
-        <v>5.95</v>
+        <v>6.02</v>
       </c>
       <c r="E9" t="n">
-        <v>5.94</v>
+        <v>6.02</v>
       </c>
       <c r="F9" t="n">
-        <v>190080.7979</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>5.940666666666669</v>
+        <v>5.940000000000001</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.88</v>
+        <v>5.95</v>
       </c>
       <c r="C10" t="n">
         <v>5.94</v>
       </c>
       <c r="D10" t="n">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="E10" t="n">
-        <v>5.88</v>
+        <v>5.94</v>
       </c>
       <c r="F10" t="n">
-        <v>41.9625</v>
+        <v>190080.7979</v>
       </c>
       <c r="G10" t="n">
-        <v>5.941833333333335</v>
+        <v>5.940666666666669</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,7 +674,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.94</v>
+        <v>5.88</v>
       </c>
       <c r="C11" t="n">
         <v>5.94</v>
@@ -651,15 +683,18 @@
         <v>5.94</v>
       </c>
       <c r="E11" t="n">
-        <v>5.94</v>
+        <v>5.88</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>41.9625</v>
       </c>
       <c r="G11" t="n">
-        <v>5.943500000000002</v>
+        <v>5.941833333333335</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -683,9 +718,12 @@
         <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>5.945333333333336</v>
+        <v>5.943500000000002</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -706,12 +744,15 @@
         <v>5.94</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>5.947000000000003</v>
+        <v>5.945333333333336</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -723,21 +764,24 @@
         <v>5.94</v>
       </c>
       <c r="C14" t="n">
-        <v>5.85</v>
+        <v>5.94</v>
       </c>
       <c r="D14" t="n">
         <v>5.94</v>
       </c>
       <c r="E14" t="n">
-        <v>5.85</v>
+        <v>5.94</v>
       </c>
       <c r="F14" t="n">
-        <v>111323.6199</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>5.94616666666667</v>
+        <v>5.947000000000003</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.86</v>
+        <v>5.94</v>
       </c>
       <c r="C15" t="n">
         <v>5.85</v>
       </c>
       <c r="D15" t="n">
-        <v>5.86</v>
+        <v>5.94</v>
       </c>
       <c r="E15" t="n">
         <v>5.85</v>
       </c>
       <c r="F15" t="n">
-        <v>95645.3253</v>
+        <v>111323.6199</v>
       </c>
       <c r="G15" t="n">
-        <v>5.945333333333338</v>
+        <v>5.94616666666667</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="C16" t="n">
-        <v>5.93</v>
+        <v>5.85</v>
       </c>
       <c r="D16" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="E16" t="n">
-        <v>5.93</v>
+        <v>5.85</v>
       </c>
       <c r="F16" t="n">
-        <v>18</v>
+        <v>95645.3253</v>
       </c>
       <c r="G16" t="n">
-        <v>5.946833333333339</v>
+        <v>5.945333333333338</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="C17" t="n">
-        <v>5.84</v>
+        <v>5.93</v>
       </c>
       <c r="D17" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="E17" t="n">
-        <v>5.84</v>
+        <v>5.93</v>
       </c>
       <c r="F17" t="n">
-        <v>58818.791</v>
+        <v>18</v>
       </c>
       <c r="G17" t="n">
-        <v>5.946000000000004</v>
+        <v>5.946833333333339</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="C18" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="D18" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="E18" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F18" t="n">
-        <v>133595.061</v>
+        <v>58818.791</v>
       </c>
       <c r="G18" t="n">
-        <v>5.945166666666671</v>
+        <v>5.946000000000004</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.91</v>
+        <v>5.83</v>
       </c>
       <c r="C19" t="n">
-        <v>5.91</v>
+        <v>5.83</v>
       </c>
       <c r="D19" t="n">
-        <v>5.91</v>
+        <v>5.83</v>
       </c>
       <c r="E19" t="n">
-        <v>5.91</v>
+        <v>5.83</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>133595.061</v>
       </c>
       <c r="G19" t="n">
-        <v>5.945666666666671</v>
+        <v>5.945166666666671</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -879,21 +938,24 @@
         <v>5.91</v>
       </c>
       <c r="C20" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="D20" t="n">
         <v>5.91</v>
       </c>
       <c r="E20" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="F20" t="n">
-        <v>36628.168</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>5.945166666666672</v>
+        <v>5.945666666666671</v>
       </c>
       <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -905,21 +967,24 @@
         <v>5.91</v>
       </c>
       <c r="C21" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="D21" t="n">
         <v>5.91</v>
       </c>
       <c r="E21" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>36628.168</v>
       </c>
       <c r="G21" t="n">
-        <v>5.945666666666672</v>
+        <v>5.945166666666672</v>
       </c>
       <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -943,9 +1008,12 @@
         <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>5.946166666666673</v>
+        <v>5.945666666666672</v>
       </c>
       <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -969,9 +1037,12 @@
         <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>5.946666666666673</v>
+        <v>5.946166666666673</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -995,9 +1066,12 @@
         <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>5.948000000000008</v>
+        <v>5.946666666666673</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1021,9 +1095,12 @@
         <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>5.949333333333342</v>
+        <v>5.948000000000008</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1047,9 +1124,12 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>5.950666666666676</v>
+        <v>5.949333333333342</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1073,9 +1153,12 @@
         <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>5.95200000000001</v>
+        <v>5.950666666666676</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1099,9 +1182,12 @@
         <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>5.953333333333344</v>
+        <v>5.95200000000001</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,12 +1208,15 @@
         <v>5.91</v>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>5.953833333333344</v>
+        <v>5.953333333333344</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1148,12 +1237,15 @@
         <v>5.91</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G30" t="n">
-        <v>5.954333333333344</v>
+        <v>5.953833333333344</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>5.91</v>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>5.955666666666678</v>
+        <v>5.954333333333344</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="C32" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="D32" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="E32" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="F32" t="n">
-        <v>20652.1657</v>
+        <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>5.956000000000013</v>
+        <v>5.955666666666678</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="C33" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="D33" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="E33" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="F33" t="n">
-        <v>20</v>
+        <v>20652.1657</v>
       </c>
       <c r="G33" t="n">
-        <v>5.956500000000013</v>
+        <v>5.956000000000013</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>5.91</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G34" t="n">
-        <v>5.957000000000013</v>
+        <v>5.956500000000013</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>5.91</v>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>5.957166666666681</v>
+        <v>5.957000000000013</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1307,9 +1414,12 @@
         <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>5.957333333333349</v>
+        <v>5.957166666666681</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1330,12 +1440,15 @@
         <v>5.91</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G37" t="n">
-        <v>5.957500000000016</v>
+        <v>5.957333333333349</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1359,9 +1472,12 @@
         <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>5.956500000000016</v>
+        <v>5.957500000000016</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1385,9 +1501,12 @@
         <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>5.954666666666683</v>
+        <v>5.956500000000016</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="C40" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="D40" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="E40" t="n">
-        <v>5.84</v>
+        <v>5.91</v>
       </c>
       <c r="F40" t="n">
-        <v>66768.4679</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>5.951500000000016</v>
+        <v>5.954666666666683</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="C41" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="D41" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="E41" t="n">
-        <v>5.91</v>
+        <v>5.84</v>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>66768.4679</v>
       </c>
       <c r="G41" t="n">
-        <v>5.949500000000017</v>
+        <v>5.951500000000016</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.83</v>
+        <v>5.91</v>
       </c>
       <c r="C42" t="n">
-        <v>5.83</v>
+        <v>5.91</v>
       </c>
       <c r="D42" t="n">
-        <v>5.83</v>
+        <v>5.91</v>
       </c>
       <c r="E42" t="n">
-        <v>5.83</v>
+        <v>5.91</v>
       </c>
       <c r="F42" t="n">
-        <v>32652.5768</v>
+        <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>5.946333333333351</v>
+        <v>5.949500000000017</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1486,12 +1614,15 @@
         <v>5.83</v>
       </c>
       <c r="F43" t="n">
-        <v>102169</v>
+        <v>32652.5768</v>
       </c>
       <c r="G43" t="n">
-        <v>5.942833333333351</v>
+        <v>5.946333333333351</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>5.83</v>
       </c>
       <c r="F44" t="n">
-        <v>70401</v>
+        <v>102169</v>
       </c>
       <c r="G44" t="n">
-        <v>5.93933333333335</v>
+        <v>5.942833333333351</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1538,12 +1672,15 @@
         <v>5.83</v>
       </c>
       <c r="F45" t="n">
-        <v>47573</v>
+        <v>70401</v>
       </c>
       <c r="G45" t="n">
-        <v>5.935833333333349</v>
+        <v>5.93933333333335</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,12 +1701,15 @@
         <v>5.83</v>
       </c>
       <c r="F46" t="n">
-        <v>43460</v>
+        <v>47573</v>
       </c>
       <c r="G46" t="n">
-        <v>5.932333333333348</v>
+        <v>5.935833333333349</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,12 +1730,15 @@
         <v>5.83</v>
       </c>
       <c r="F47" t="n">
-        <v>73622</v>
+        <v>43460</v>
       </c>
       <c r="G47" t="n">
-        <v>5.928833333333348</v>
+        <v>5.932333333333348</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1616,12 +1759,15 @@
         <v>5.83</v>
       </c>
       <c r="F48" t="n">
-        <v>58756</v>
+        <v>73622</v>
       </c>
       <c r="G48" t="n">
-        <v>5.925500000000015</v>
+        <v>5.928833333333348</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>5.83</v>
       </c>
       <c r="F49" t="n">
-        <v>41923.7761</v>
+        <v>58756</v>
       </c>
       <c r="G49" t="n">
-        <v>5.922333333333348</v>
+        <v>5.925500000000015</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1668,12 +1817,15 @@
         <v>5.83</v>
       </c>
       <c r="F50" t="n">
-        <v>123256.1582</v>
+        <v>41923.7761</v>
       </c>
       <c r="G50" t="n">
-        <v>5.919833333333347</v>
+        <v>5.922333333333348</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>5.83</v>
       </c>
       <c r="F51" t="n">
-        <v>46143</v>
+        <v>123256.1582</v>
       </c>
       <c r="G51" t="n">
-        <v>5.917333333333347</v>
+        <v>5.919833333333347</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1711,21 +1866,24 @@
         <v>5.83</v>
       </c>
       <c r="C52" t="n">
-        <v>5.91</v>
+        <v>5.83</v>
       </c>
       <c r="D52" t="n">
-        <v>5.91</v>
+        <v>5.83</v>
       </c>
       <c r="E52" t="n">
         <v>5.83</v>
       </c>
       <c r="F52" t="n">
-        <v>35193</v>
+        <v>46143</v>
       </c>
       <c r="G52" t="n">
-        <v>5.916166666666681</v>
+        <v>5.917333333333347</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.87</v>
+        <v>5.83</v>
       </c>
       <c r="C53" t="n">
-        <v>5.87</v>
+        <v>5.91</v>
       </c>
       <c r="D53" t="n">
-        <v>5.87</v>
+        <v>5.91</v>
       </c>
       <c r="E53" t="n">
-        <v>5.87</v>
+        <v>5.83</v>
       </c>
       <c r="F53" t="n">
-        <v>42.2487</v>
+        <v>35193</v>
       </c>
       <c r="G53" t="n">
-        <v>5.914333333333347</v>
+        <v>5.916166666666681</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,12 +1933,15 @@
         <v>5.87</v>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>42.2487</v>
       </c>
       <c r="G54" t="n">
-        <v>5.912500000000013</v>
+        <v>5.914333333333347</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1801,9 +1965,12 @@
         <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>5.910000000000013</v>
+        <v>5.912500000000013</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.83</v>
+        <v>5.87</v>
       </c>
       <c r="C56" t="n">
-        <v>5.83</v>
+        <v>5.87</v>
       </c>
       <c r="D56" t="n">
-        <v>5.83</v>
+        <v>5.87</v>
       </c>
       <c r="E56" t="n">
-        <v>5.83</v>
+        <v>5.87</v>
       </c>
       <c r="F56" t="n">
-        <v>138.1486</v>
+        <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>5.906833333333347</v>
+        <v>5.910000000000013</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,12 +2020,15 @@
         <v>5.83</v>
       </c>
       <c r="F57" t="n">
-        <v>62.4513</v>
+        <v>138.1486</v>
       </c>
       <c r="G57" t="n">
-        <v>5.90366666666668</v>
+        <v>5.906833333333347</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="C58" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="D58" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="E58" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="F58" t="n">
-        <v>10877.226</v>
+        <v>62.4513</v>
       </c>
       <c r="G58" t="n">
-        <v>5.900500000000013</v>
+        <v>5.90366666666668</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="C59" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="D59" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="E59" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F59" t="n">
-        <v>2845.8334</v>
+        <v>10877.226</v>
       </c>
       <c r="G59" t="n">
-        <v>5.89716666666668</v>
+        <v>5.900500000000013</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1928,12 +2107,15 @@
         <v>5.83</v>
       </c>
       <c r="F60" t="n">
-        <v>20000</v>
+        <v>2845.8334</v>
       </c>
       <c r="G60" t="n">
-        <v>5.89566666666668</v>
+        <v>5.89716666666668</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,12 +2136,15 @@
         <v>5.83</v>
       </c>
       <c r="F61" t="n">
-        <v>18268.2539</v>
+        <v>20000</v>
       </c>
       <c r="G61" t="n">
-        <v>5.892833333333346</v>
+        <v>5.89566666666668</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1980,12 +2165,15 @@
         <v>5.83</v>
       </c>
       <c r="F62" t="n">
-        <v>61440.954</v>
+        <v>18268.2539</v>
       </c>
       <c r="G62" t="n">
-        <v>5.890000000000013</v>
+        <v>5.892833333333346</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2006,12 +2194,15 @@
         <v>5.83</v>
       </c>
       <c r="F63" t="n">
-        <v>60122.3039</v>
+        <v>61440.954</v>
       </c>
       <c r="G63" t="n">
-        <v>5.887666666666679</v>
+        <v>5.890000000000013</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2032,12 +2223,15 @@
         <v>5.83</v>
       </c>
       <c r="F64" t="n">
-        <v>30647.4628</v>
+        <v>60122.3039</v>
       </c>
       <c r="G64" t="n">
-        <v>5.885333333333345</v>
+        <v>5.887666666666679</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="C65" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="D65" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="E65" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>30647.4628</v>
       </c>
       <c r="G65" t="n">
-        <v>5.882833333333346</v>
+        <v>5.885333333333345</v>
       </c>
       <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="C66" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="D66" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="E66" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="F66" t="n">
-        <v>12582.2333</v>
+        <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>5.879666666666679</v>
+        <v>5.882833333333346</v>
       </c>
       <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2101,21 +2301,24 @@
         <v>5.83</v>
       </c>
       <c r="C67" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="D67" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="E67" t="n">
         <v>5.83</v>
       </c>
       <c r="F67" t="n">
-        <v>16503.5561</v>
+        <v>12582.2333</v>
       </c>
       <c r="G67" t="n">
-        <v>5.877000000000012</v>
+        <v>5.879666666666679</v>
       </c>
       <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,7 +2327,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="C68" t="n">
         <v>5.86</v>
@@ -2133,15 +2336,18 @@
         <v>5.86</v>
       </c>
       <c r="E68" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="F68" t="n">
-        <v>100</v>
+        <v>16503.5561</v>
       </c>
       <c r="G68" t="n">
-        <v>5.874333333333346</v>
+        <v>5.877000000000012</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2165,9 +2371,12 @@
         <v>100</v>
       </c>
       <c r="G69" t="n">
-        <v>5.873000000000014</v>
+        <v>5.874333333333346</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.84</v>
+        <v>5.86</v>
       </c>
       <c r="C70" t="n">
-        <v>5.84</v>
+        <v>5.86</v>
       </c>
       <c r="D70" t="n">
-        <v>5.84</v>
+        <v>5.86</v>
       </c>
       <c r="E70" t="n">
-        <v>5.84</v>
+        <v>5.86</v>
       </c>
       <c r="F70" t="n">
-        <v>47.8632</v>
+        <v>100</v>
       </c>
       <c r="G70" t="n">
-        <v>5.871333333333346</v>
+        <v>5.873000000000014</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>5.84</v>
       </c>
       <c r="F71" t="n">
-        <v>3305.1369</v>
+        <v>47.8632</v>
       </c>
       <c r="G71" t="n">
-        <v>5.869666666666679</v>
+        <v>5.871333333333346</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="C72" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="D72" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="E72" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F72" t="n">
-        <v>66018.7767</v>
+        <v>3305.1369</v>
       </c>
       <c r="G72" t="n">
-        <v>5.867833333333346</v>
+        <v>5.869666666666679</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="C73" t="n">
-        <v>5.87</v>
+        <v>5.83</v>
       </c>
       <c r="D73" t="n">
-        <v>5.87</v>
+        <v>5.83</v>
       </c>
       <c r="E73" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="F73" t="n">
-        <v>42080.5264</v>
+        <v>66018.7767</v>
       </c>
       <c r="G73" t="n">
-        <v>5.866666666666679</v>
+        <v>5.867833333333346</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,7 +2501,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="C74" t="n">
         <v>5.87</v>
@@ -2289,15 +2510,18 @@
         <v>5.87</v>
       </c>
       <c r="E74" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="F74" t="n">
-        <v>81874</v>
+        <v>42080.5264</v>
       </c>
       <c r="G74" t="n">
-        <v>5.867000000000012</v>
+        <v>5.866666666666679</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>5.87</v>
       </c>
       <c r="F75" t="n">
-        <v>28364</v>
+        <v>81874</v>
       </c>
       <c r="G75" t="n">
-        <v>5.867333333333345</v>
+        <v>5.867000000000012</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="C76" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="D76" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="E76" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="F76" t="n">
-        <v>559.7014</v>
+        <v>28364</v>
       </c>
       <c r="G76" t="n">
-        <v>5.866500000000012</v>
+        <v>5.867333333333345</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5.9</v>
+        <v>5.88</v>
       </c>
       <c r="C77" t="n">
-        <v>5.93</v>
+        <v>5.88</v>
       </c>
       <c r="D77" t="n">
-        <v>5.93</v>
+        <v>5.88</v>
       </c>
       <c r="E77" t="n">
-        <v>5.9</v>
+        <v>5.88</v>
       </c>
       <c r="F77" t="n">
-        <v>30</v>
+        <v>559.7014</v>
       </c>
       <c r="G77" t="n">
-        <v>5.868000000000012</v>
+        <v>5.866500000000012</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="C78" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="D78" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="E78" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="F78" t="n">
-        <v>74441.70699999999</v>
+        <v>30</v>
       </c>
       <c r="G78" t="n">
-        <v>5.869833333333346</v>
+        <v>5.868000000000012</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5.88</v>
+        <v>5.94</v>
       </c>
       <c r="C79" t="n">
-        <v>5.88</v>
+        <v>5.94</v>
       </c>
       <c r="D79" t="n">
-        <v>5.88</v>
+        <v>5.94</v>
       </c>
       <c r="E79" t="n">
-        <v>5.88</v>
+        <v>5.94</v>
       </c>
       <c r="F79" t="n">
-        <v>25469</v>
+        <v>74441.70699999999</v>
       </c>
       <c r="G79" t="n">
-        <v>5.869333333333345</v>
+        <v>5.869833333333346</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="C80" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="D80" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="E80" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="F80" t="n">
-        <v>37663.4802</v>
+        <v>25469</v>
       </c>
       <c r="G80" t="n">
-        <v>5.869666666666678</v>
+        <v>5.869333333333345</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="C81" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="D81" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="E81" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="F81" t="n">
-        <v>83.3558</v>
+        <v>37663.4802</v>
       </c>
       <c r="G81" t="n">
-        <v>5.870000000000011</v>
+        <v>5.869666666666678</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5.88</v>
+        <v>5.93</v>
       </c>
       <c r="C82" t="n">
-        <v>5.88</v>
+        <v>5.93</v>
       </c>
       <c r="D82" t="n">
-        <v>5.88</v>
+        <v>5.93</v>
       </c>
       <c r="E82" t="n">
-        <v>5.88</v>
+        <v>5.93</v>
       </c>
       <c r="F82" t="n">
-        <v>21967</v>
+        <v>83.3558</v>
       </c>
       <c r="G82" t="n">
-        <v>5.869500000000011</v>
+        <v>5.870000000000011</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.91</v>
+        <v>5.88</v>
       </c>
       <c r="C83" t="n">
-        <v>5.91</v>
+        <v>5.88</v>
       </c>
       <c r="D83" t="n">
-        <v>5.91</v>
+        <v>5.88</v>
       </c>
       <c r="E83" t="n">
-        <v>5.91</v>
+        <v>5.88</v>
       </c>
       <c r="F83" t="n">
-        <v>10</v>
+        <v>21967</v>
       </c>
       <c r="G83" t="n">
         <v>5.869500000000011</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.89</v>
+        <v>5.91</v>
       </c>
       <c r="C84" t="n">
-        <v>5.89</v>
+        <v>5.91</v>
       </c>
       <c r="D84" t="n">
-        <v>5.89</v>
+        <v>5.91</v>
       </c>
       <c r="E84" t="n">
-        <v>5.89</v>
+        <v>5.91</v>
       </c>
       <c r="F84" t="n">
-        <v>149744.3971</v>
+        <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>5.869166666666676</v>
+        <v>5.869500000000011</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>5.89</v>
       </c>
       <c r="F85" t="n">
-        <v>63541.4261</v>
+        <v>149744.3971</v>
       </c>
       <c r="G85" t="n">
-        <v>5.868833333333343</v>
+        <v>5.869166666666676</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="C86" t="n">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="D86" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="E86" t="n">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="F86" t="n">
-        <v>59458.3083</v>
+        <v>63541.4261</v>
       </c>
       <c r="G86" t="n">
-        <v>5.868000000000009</v>
+        <v>5.868833333333343</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="C87" t="n">
-        <v>5.89</v>
+        <v>5.86</v>
       </c>
       <c r="D87" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="E87" t="n">
-        <v>5.89</v>
+        <v>5.86</v>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>59458.3083</v>
       </c>
       <c r="G87" t="n">
-        <v>5.867666666666675</v>
+        <v>5.868000000000009</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2656,12 +2919,15 @@
         <v>5.89</v>
       </c>
       <c r="F88" t="n">
-        <v>21487.691</v>
+        <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>5.867333333333341</v>
+        <v>5.867666666666675</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="C89" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="D89" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="E89" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="F89" t="n">
-        <v>121892</v>
+        <v>21487.691</v>
       </c>
       <c r="G89" t="n">
-        <v>5.866666666666674</v>
+        <v>5.867333333333341</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,12 +2977,15 @@
         <v>5.87</v>
       </c>
       <c r="F90" t="n">
-        <v>73394</v>
+        <v>121892</v>
       </c>
       <c r="G90" t="n">
-        <v>5.866000000000008</v>
+        <v>5.866666666666674</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2731,15 +3003,18 @@
         <v>5.87</v>
       </c>
       <c r="E91" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="F91" t="n">
-        <v>55323.4417</v>
+        <v>73394</v>
       </c>
       <c r="G91" t="n">
-        <v>5.86533333333334</v>
+        <v>5.866000000000008</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2757,15 +3032,18 @@
         <v>5.87</v>
       </c>
       <c r="E92" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="F92" t="n">
-        <v>84213</v>
+        <v>55323.4417</v>
       </c>
       <c r="G92" t="n">
-        <v>5.865666666666673</v>
+        <v>5.86533333333334</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>5.87</v>
       </c>
       <c r="F93" t="n">
-        <v>43989</v>
+        <v>84213</v>
       </c>
       <c r="G93" t="n">
-        <v>5.865000000000006</v>
+        <v>5.865666666666673</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>5.87</v>
       </c>
       <c r="F94" t="n">
-        <v>47311</v>
+        <v>43989</v>
       </c>
       <c r="G94" t="n">
-        <v>5.864333333333339</v>
+        <v>5.865000000000006</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>5.87</v>
       </c>
       <c r="F95" t="n">
-        <v>59969</v>
+        <v>47311</v>
       </c>
       <c r="G95" t="n">
-        <v>5.863666666666672</v>
+        <v>5.864333333333339</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>5.87</v>
       </c>
       <c r="F96" t="n">
-        <v>67925</v>
+        <v>59969</v>
       </c>
       <c r="G96" t="n">
-        <v>5.863000000000005</v>
+        <v>5.863666666666672</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>5.87</v>
       </c>
       <c r="F97" t="n">
-        <v>66674</v>
+        <v>67925</v>
       </c>
       <c r="G97" t="n">
-        <v>5.862333333333338</v>
+        <v>5.863000000000005</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2916,12 +3209,15 @@
         <v>5.87</v>
       </c>
       <c r="F98" t="n">
-        <v>68285</v>
+        <v>66674</v>
       </c>
       <c r="G98" t="n">
-        <v>5.861666666666671</v>
+        <v>5.862333333333338</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2933,21 +3229,24 @@
         <v>5.87</v>
       </c>
       <c r="C99" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="D99" t="n">
         <v>5.87</v>
       </c>
       <c r="E99" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="F99" t="n">
-        <v>57806</v>
+        <v>68285</v>
       </c>
       <c r="G99" t="n">
-        <v>5.860833333333337</v>
+        <v>5.861666666666671</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="C100" t="n">
-        <v>5.88</v>
+        <v>5.86</v>
       </c>
       <c r="D100" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="E100" t="n">
-        <v>5.88</v>
+        <v>5.86</v>
       </c>
       <c r="F100" t="n">
-        <v>5600</v>
+        <v>57806</v>
       </c>
       <c r="G100" t="n">
-        <v>5.861333333333337</v>
+        <v>5.860833333333337</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="C101" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="D101" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="E101" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="F101" t="n">
-        <v>90427.7521</v>
+        <v>5600</v>
       </c>
       <c r="G101" t="n">
-        <v>5.86016666666667</v>
+        <v>5.861333333333337</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>5.84</v>
       </c>
       <c r="F102" t="n">
-        <v>51807</v>
+        <v>90427.7521</v>
       </c>
       <c r="G102" t="n">
-        <v>5.860333333333336</v>
+        <v>5.86016666666667</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>5.84</v>
       </c>
       <c r="F103" t="n">
-        <v>67877</v>
+        <v>51807</v>
       </c>
       <c r="G103" t="n">
-        <v>5.860500000000003</v>
+        <v>5.860333333333336</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,12 +3383,15 @@
         <v>5.84</v>
       </c>
       <c r="F104" t="n">
-        <v>68601</v>
+        <v>67877</v>
       </c>
       <c r="G104" t="n">
-        <v>5.86066666666667</v>
+        <v>5.860500000000003</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3098,12 +3412,15 @@
         <v>5.84</v>
       </c>
       <c r="F105" t="n">
-        <v>75595</v>
+        <v>68601</v>
       </c>
       <c r="G105" t="n">
-        <v>5.860833333333336</v>
+        <v>5.86066666666667</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3124,12 +3441,15 @@
         <v>5.84</v>
       </c>
       <c r="F106" t="n">
-        <v>47410</v>
+        <v>75595</v>
       </c>
       <c r="G106" t="n">
-        <v>5.861000000000002</v>
+        <v>5.860833333333336</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,7 +3458,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="C107" t="n">
         <v>5.84</v>
@@ -3147,15 +3467,18 @@
         <v>5.84</v>
       </c>
       <c r="E107" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F107" t="n">
-        <v>106857.4139</v>
+        <v>47410</v>
       </c>
       <c r="G107" t="n">
-        <v>5.861166666666668</v>
+        <v>5.861000000000002</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,7 +3487,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="C108" t="n">
         <v>5.84</v>
@@ -3173,15 +3496,18 @@
         <v>5.84</v>
       </c>
       <c r="E108" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="F108" t="n">
-        <v>55707</v>
+        <v>106857.4139</v>
       </c>
       <c r="G108" t="n">
-        <v>5.861333333333335</v>
+        <v>5.861166666666668</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3199,15 +3525,18 @@
         <v>5.84</v>
       </c>
       <c r="E109" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F109" t="n">
-        <v>52404.0574</v>
+        <v>55707</v>
       </c>
       <c r="G109" t="n">
-        <v>5.861500000000002</v>
+        <v>5.861333333333335</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3225,15 +3554,18 @@
         <v>5.84</v>
       </c>
       <c r="E110" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="F110" t="n">
-        <v>36869.1035</v>
+        <v>52404.0574</v>
       </c>
       <c r="G110" t="n">
-        <v>5.861666666666668</v>
+        <v>5.861500000000002</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,12 +3586,15 @@
         <v>5.84</v>
       </c>
       <c r="F111" t="n">
-        <v>346.7665</v>
+        <v>36869.1035</v>
       </c>
       <c r="G111" t="n">
-        <v>5.861833333333335</v>
+        <v>5.861666666666668</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>5.84</v>
       </c>
       <c r="F112" t="n">
-        <v>15000</v>
+        <v>346.7665</v>
       </c>
       <c r="G112" t="n">
-        <v>5.860666666666668</v>
+        <v>5.861833333333335</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="C113" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="D113" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="E113" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="F113" t="n">
-        <v>100</v>
+        <v>15000</v>
       </c>
       <c r="G113" t="n">
         <v>5.860666666666668</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3323,21 +3664,24 @@
         <v>5.87</v>
       </c>
       <c r="C114" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="D114" t="n">
         <v>5.87</v>
       </c>
       <c r="E114" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="F114" t="n">
-        <v>39.95</v>
+        <v>100</v>
       </c>
       <c r="G114" t="n">
-        <v>5.860166666666667</v>
+        <v>5.860666666666668</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="C115" t="n">
         <v>5.84</v>
       </c>
       <c r="D115" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="E115" t="n">
         <v>5.84</v>
       </c>
       <c r="F115" t="n">
-        <v>11970</v>
+        <v>39.95</v>
       </c>
       <c r="G115" t="n">
-        <v>5.859666666666667</v>
+        <v>5.860166666666667</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3384,12 +3731,15 @@
         <v>5.84</v>
       </c>
       <c r="F116" t="n">
-        <v>84538.9186</v>
+        <v>11970</v>
       </c>
       <c r="G116" t="n">
-        <v>5.859833333333333</v>
+        <v>5.859666666666667</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3407,15 +3757,18 @@
         <v>5.84</v>
       </c>
       <c r="E117" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F117" t="n">
-        <v>87902.95</v>
+        <v>84538.9186</v>
       </c>
       <c r="G117" t="n">
-        <v>5.859999999999999</v>
+        <v>5.859833333333333</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3433,15 +3786,18 @@
         <v>5.84</v>
       </c>
       <c r="E118" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="F118" t="n">
-        <v>10250.776</v>
+        <v>87902.95</v>
       </c>
       <c r="G118" t="n">
         <v>5.859999999999999</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="C119" t="n">
-        <v>5.88</v>
+        <v>5.84</v>
       </c>
       <c r="D119" t="n">
-        <v>5.88</v>
+        <v>5.84</v>
       </c>
       <c r="E119" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="F119" t="n">
-        <v>69918.4127</v>
+        <v>10250.776</v>
       </c>
       <c r="G119" t="n">
-        <v>5.860833333333333</v>
+        <v>5.859999999999999</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,7 +3835,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="C120" t="n">
         <v>5.88</v>
@@ -3485,15 +3844,18 @@
         <v>5.88</v>
       </c>
       <c r="E120" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="F120" t="n">
-        <v>62918</v>
+        <v>69918.4127</v>
       </c>
       <c r="G120" t="n">
-        <v>5.861666666666666</v>
+        <v>5.860833333333333</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3511,15 +3873,18 @@
         <v>5.88</v>
       </c>
       <c r="E121" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="F121" t="n">
-        <v>100383.95</v>
+        <v>62918</v>
       </c>
       <c r="G121" t="n">
-        <v>5.8625</v>
+        <v>5.861666666666666</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3537,15 +3902,18 @@
         <v>5.88</v>
       </c>
       <c r="E122" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="F122" t="n">
-        <v>4544.5853</v>
+        <v>100383.95</v>
       </c>
       <c r="G122" t="n">
-        <v>5.863333333333333</v>
+        <v>5.8625</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.93</v>
+        <v>5.88</v>
       </c>
       <c r="C123" t="n">
-        <v>5.86</v>
+        <v>5.88</v>
       </c>
       <c r="D123" t="n">
-        <v>5.93</v>
+        <v>5.88</v>
       </c>
       <c r="E123" t="n">
-        <v>5.86</v>
+        <v>5.88</v>
       </c>
       <c r="F123" t="n">
-        <v>39.95</v>
+        <v>4544.5853</v>
       </c>
       <c r="G123" t="n">
-        <v>5.863833333333334</v>
+        <v>5.863333333333333</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="C124" t="n">
         <v>5.86</v>
       </c>
       <c r="D124" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="E124" t="n">
         <v>5.86</v>
       </c>
       <c r="F124" t="n">
-        <v>5200</v>
+        <v>39.95</v>
       </c>
       <c r="G124" t="n">
-        <v>5.864333333333335</v>
+        <v>5.863833333333334</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="C125" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="D125" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="E125" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="F125" t="n">
-        <v>10</v>
+        <v>5200</v>
       </c>
       <c r="G125" t="n">
-        <v>5.865500000000001</v>
+        <v>5.864333333333335</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3635,21 +4012,24 @@
         <v>5.93</v>
       </c>
       <c r="C126" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="D126" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="E126" t="n">
         <v>5.93</v>
       </c>
       <c r="F126" t="n">
-        <v>161562.1582</v>
+        <v>10</v>
       </c>
       <c r="G126" t="n">
-        <v>5.867333333333335</v>
+        <v>5.865500000000001</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,10 +4038,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="C127" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="D127" t="n">
         <v>5.94</v>
@@ -3670,12 +4050,15 @@
         <v>5.93</v>
       </c>
       <c r="F127" t="n">
-        <v>21</v>
+        <v>161562.1582</v>
       </c>
       <c r="G127" t="n">
-        <v>5.868500000000001</v>
+        <v>5.867333333333335</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C128" t="n">
         <v>5.93</v>
       </c>
-      <c r="C128" t="n">
-        <v>5.88</v>
-      </c>
       <c r="D128" t="n">
         <v>5.94</v>
       </c>
       <c r="E128" t="n">
-        <v>5.88</v>
+        <v>5.93</v>
       </c>
       <c r="F128" t="n">
-        <v>78.84999999999999</v>
+        <v>21</v>
       </c>
       <c r="G128" t="n">
-        <v>5.868833333333334</v>
+        <v>5.868500000000001</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="C129" t="n">
-        <v>5.94</v>
+        <v>5.88</v>
       </c>
       <c r="D129" t="n">
         <v>5.94</v>
       </c>
       <c r="E129" t="n">
-        <v>5.94</v>
+        <v>5.88</v>
       </c>
       <c r="F129" t="n">
-        <v>10</v>
+        <v>78.84999999999999</v>
       </c>
       <c r="G129" t="n">
-        <v>5.870166666666667</v>
+        <v>5.868833333333334</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3739,21 +4128,24 @@
         <v>5.94</v>
       </c>
       <c r="C130" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="D130" t="n">
         <v>5.94</v>
       </c>
       <c r="E130" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="F130" t="n">
-        <v>25676.987</v>
+        <v>10</v>
       </c>
       <c r="G130" t="n">
-        <v>5.871166666666667</v>
+        <v>5.870166666666667</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.92</v>
+        <v>5.94</v>
       </c>
       <c r="C131" t="n">
-        <v>5.91</v>
+        <v>5.9</v>
       </c>
       <c r="D131" t="n">
-        <v>5.92</v>
+        <v>5.94</v>
       </c>
       <c r="E131" t="n">
-        <v>5.91</v>
+        <v>5.9</v>
       </c>
       <c r="F131" t="n">
-        <v>148081.4839</v>
+        <v>25676.987</v>
       </c>
       <c r="G131" t="n">
-        <v>5.872333333333335</v>
+        <v>5.871166666666667</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.94</v>
+        <v>5.92</v>
       </c>
       <c r="C132" t="n">
-        <v>5.87</v>
+        <v>5.91</v>
       </c>
       <c r="D132" t="n">
-        <v>5.94</v>
+        <v>5.92</v>
       </c>
       <c r="E132" t="n">
-        <v>5.87</v>
+        <v>5.91</v>
       </c>
       <c r="F132" t="n">
-        <v>39.95</v>
+        <v>148081.4839</v>
       </c>
       <c r="G132" t="n">
-        <v>5.873000000000002</v>
+        <v>5.872333333333335</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="C133" t="n">
-        <v>5.9</v>
+        <v>5.87</v>
       </c>
       <c r="D133" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="E133" t="n">
-        <v>5.9</v>
+        <v>5.87</v>
       </c>
       <c r="F133" t="n">
-        <v>17398.706</v>
+        <v>39.95</v>
       </c>
       <c r="G133" t="n">
-        <v>5.873500000000002</v>
+        <v>5.873000000000002</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.93</v>
+        <v>5.9</v>
       </c>
       <c r="C134" t="n">
-        <v>5.86</v>
+        <v>5.9</v>
       </c>
       <c r="D134" t="n">
-        <v>5.93</v>
+        <v>5.9</v>
       </c>
       <c r="E134" t="n">
-        <v>5.86</v>
+        <v>5.9</v>
       </c>
       <c r="F134" t="n">
-        <v>39.95</v>
+        <v>17398.706</v>
       </c>
       <c r="G134" t="n">
-        <v>5.873333333333335</v>
+        <v>5.873500000000002</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="C135" t="n">
         <v>5.86</v>
       </c>
       <c r="D135" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="E135" t="n">
         <v>5.86</v>
       </c>
       <c r="F135" t="n">
-        <v>23371.1677</v>
+        <v>39.95</v>
       </c>
       <c r="G135" t="n">
-        <v>5.873166666666668</v>
+        <v>5.873333333333335</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="C136" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="D136" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="E136" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="F136" t="n">
-        <v>100</v>
+        <v>23371.1677</v>
       </c>
       <c r="G136" t="n">
-        <v>5.874000000000001</v>
+        <v>5.873166666666668</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="C137" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="D137" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="E137" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="F137" t="n">
-        <v>25572.9444</v>
+        <v>100</v>
       </c>
       <c r="G137" t="n">
-        <v>5.872833333333335</v>
+        <v>5.874000000000001</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="C138" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="D138" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="E138" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="F138" t="n">
-        <v>8939.2845</v>
+        <v>25572.9444</v>
       </c>
       <c r="G138" t="n">
-        <v>5.871666666666669</v>
+        <v>5.872833333333335</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="C139" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="D139" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="E139" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="F139" t="n">
-        <v>10</v>
+        <v>8939.2845</v>
       </c>
       <c r="G139" t="n">
-        <v>5.872500000000002</v>
+        <v>5.871666666666669</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="C140" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="D140" t="n">
         <v>5.93</v>
       </c>
       <c r="E140" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="F140" t="n">
-        <v>432.597</v>
+        <v>10</v>
       </c>
       <c r="G140" t="n">
-        <v>5.872333333333335</v>
+        <v>5.872500000000002</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="C141" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="D141" t="n">
         <v>5.93</v>
       </c>
       <c r="E141" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>432.597</v>
       </c>
       <c r="G141" t="n">
         <v>5.872333333333335</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4051,21 +4476,24 @@
         <v>5.93</v>
       </c>
       <c r="C142" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="D142" t="n">
         <v>5.93</v>
       </c>
       <c r="E142" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="F142" t="n">
-        <v>39.95</v>
+        <v>10</v>
       </c>
       <c r="G142" t="n">
-        <v>5.872000000000003</v>
+        <v>5.872333333333335</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4077,21 +4505,24 @@
         <v>5.93</v>
       </c>
       <c r="C143" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="D143" t="n">
         <v>5.93</v>
       </c>
       <c r="E143" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="F143" t="n">
-        <v>10</v>
+        <v>39.95</v>
       </c>
       <c r="G143" t="n">
-        <v>5.872333333333335</v>
+        <v>5.872000000000003</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4103,21 +4534,24 @@
         <v>5.93</v>
       </c>
       <c r="C144" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="D144" t="n">
         <v>5.93</v>
       </c>
       <c r="E144" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="F144" t="n">
-        <v>39.95</v>
+        <v>10</v>
       </c>
       <c r="G144" t="n">
-        <v>5.871833333333337</v>
+        <v>5.872333333333335</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.92</v>
+        <v>5.93</v>
       </c>
       <c r="C145" t="n">
-        <v>5.92</v>
+        <v>5.86</v>
       </c>
       <c r="D145" t="n">
-        <v>5.92</v>
+        <v>5.93</v>
       </c>
       <c r="E145" t="n">
-        <v>5.92</v>
+        <v>5.86</v>
       </c>
       <c r="F145" t="n">
-        <v>10</v>
+        <v>39.95</v>
       </c>
       <c r="G145" t="n">
-        <v>5.872333333333336</v>
+        <v>5.871833333333337</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.91</v>
+        <v>5.92</v>
       </c>
       <c r="C146" t="n">
-        <v>5.86</v>
+        <v>5.92</v>
       </c>
       <c r="D146" t="n">
-        <v>5.91</v>
+        <v>5.92</v>
       </c>
       <c r="E146" t="n">
-        <v>5.86</v>
+        <v>5.92</v>
       </c>
       <c r="F146" t="n">
-        <v>30644.4003</v>
+        <v>10</v>
       </c>
       <c r="G146" t="n">
         <v>5.872333333333336</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="C147" t="n">
         <v>5.86</v>
       </c>
-      <c r="C147" t="n">
-        <v>5.94</v>
-      </c>
       <c r="D147" t="n">
-        <v>5.94</v>
+        <v>5.91</v>
       </c>
       <c r="E147" t="n">
-        <v>5.85</v>
+        <v>5.86</v>
       </c>
       <c r="F147" t="n">
-        <v>475188.517</v>
+        <v>30644.4003</v>
       </c>
       <c r="G147" t="n">
-        <v>5.873166666666671</v>
+        <v>5.872333333333336</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,7 +4647,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.94</v>
+        <v>5.86</v>
       </c>
       <c r="C148" t="n">
         <v>5.94</v>
@@ -4213,15 +4656,18 @@
         <v>5.94</v>
       </c>
       <c r="E148" t="n">
-        <v>5.94</v>
+        <v>5.85</v>
       </c>
       <c r="F148" t="n">
-        <v>20</v>
+        <v>475188.517</v>
       </c>
       <c r="G148" t="n">
-        <v>5.874000000000004</v>
+        <v>5.873166666666671</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.92</v>
+        <v>5.94</v>
       </c>
       <c r="C149" t="n">
-        <v>5.92</v>
+        <v>5.94</v>
       </c>
       <c r="D149" t="n">
-        <v>5.92</v>
+        <v>5.94</v>
       </c>
       <c r="E149" t="n">
-        <v>5.92</v>
+        <v>5.94</v>
       </c>
       <c r="F149" t="n">
-        <v>19.95</v>
+        <v>20</v>
       </c>
       <c r="G149" t="n">
-        <v>5.874833333333338</v>
+        <v>5.874000000000004</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4262,18 +4711,21 @@
         <v>5.92</v>
       </c>
       <c r="D150" t="n">
-        <v>5.94</v>
+        <v>5.92</v>
       </c>
       <c r="E150" t="n">
         <v>5.92</v>
       </c>
       <c r="F150" t="n">
-        <v>162.077</v>
+        <v>19.95</v>
       </c>
       <c r="G150" t="n">
-        <v>5.875666666666671</v>
+        <v>5.874833333333338</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.87</v>
+        <v>5.92</v>
       </c>
       <c r="C151" t="n">
-        <v>5.87</v>
+        <v>5.92</v>
       </c>
       <c r="D151" t="n">
-        <v>5.87</v>
+        <v>5.94</v>
       </c>
       <c r="E151" t="n">
-        <v>5.87</v>
+        <v>5.92</v>
       </c>
       <c r="F151" t="n">
-        <v>19.873</v>
+        <v>162.077</v>
       </c>
       <c r="G151" t="n">
         <v>5.875666666666671</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="C152" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="D152" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="E152" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="F152" t="n">
-        <v>24378.7841</v>
+        <v>19.873</v>
       </c>
       <c r="G152" t="n">
-        <v>5.876000000000004</v>
+        <v>5.875666666666671</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4337,21 +4795,24 @@
         <v>5.89</v>
       </c>
       <c r="C153" t="n">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="D153" t="n">
         <v>5.89</v>
       </c>
       <c r="E153" t="n">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="F153" t="n">
-        <v>39.95</v>
+        <v>24378.7841</v>
       </c>
       <c r="G153" t="n">
-        <v>5.875833333333337</v>
+        <v>5.876000000000004</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="C154" t="n">
         <v>5.86</v>
       </c>
       <c r="D154" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="E154" t="n">
         <v>5.86</v>
       </c>
       <c r="F154" t="n">
-        <v>41498.179</v>
+        <v>39.95</v>
       </c>
       <c r="G154" t="n">
-        <v>5.875666666666671</v>
+        <v>5.875833333333337</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C155" t="n">
         <v>5.86</v>
       </c>
-      <c r="C155" t="n">
-        <v>5.81</v>
-      </c>
       <c r="D155" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="E155" t="n">
         <v>5.86</v>
       </c>
-      <c r="E155" t="n">
-        <v>5.81</v>
-      </c>
       <c r="F155" t="n">
-        <v>423459.9159</v>
+        <v>41498.179</v>
       </c>
       <c r="G155" t="n">
-        <v>5.874666666666671</v>
+        <v>5.875666666666671</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,24 +4879,27 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.82</v>
+        <v>5.86</v>
       </c>
       <c r="C156" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="D156" t="n">
-        <v>5.82</v>
+        <v>5.86</v>
       </c>
       <c r="E156" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="F156" t="n">
-        <v>3296.874</v>
+        <v>423459.9159</v>
       </c>
       <c r="G156" t="n">
-        <v>5.873833333333337</v>
+        <v>5.874666666666671</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.89</v>
+        <v>5.82</v>
       </c>
       <c r="C157" t="n">
-        <v>5.89</v>
+        <v>5.82</v>
       </c>
       <c r="D157" t="n">
-        <v>5.89</v>
+        <v>5.82</v>
       </c>
       <c r="E157" t="n">
-        <v>5.89</v>
+        <v>5.82</v>
       </c>
       <c r="F157" t="n">
-        <v>10</v>
+        <v>3296.874</v>
       </c>
       <c r="G157" t="n">
-        <v>5.87416666666667</v>
+        <v>5.873833333333337</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4467,21 +4940,24 @@
         <v>5.89</v>
       </c>
       <c r="C158" t="n">
-        <v>5.82</v>
+        <v>5.89</v>
       </c>
       <c r="D158" t="n">
         <v>5.89</v>
       </c>
       <c r="E158" t="n">
-        <v>5.82</v>
+        <v>5.89</v>
       </c>
       <c r="F158" t="n">
-        <v>39.95</v>
+        <v>10</v>
       </c>
       <c r="G158" t="n">
-        <v>5.873333333333337</v>
+        <v>5.87416666666667</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C159" t="n">
         <v>5.82</v>
       </c>
-      <c r="C159" t="n">
-        <v>5.81</v>
-      </c>
       <c r="D159" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E159" t="n">
         <v>5.82</v>
       </c>
-      <c r="E159" t="n">
-        <v>5.81</v>
-      </c>
       <c r="F159" t="n">
-        <v>29637.3249</v>
+        <v>39.95</v>
       </c>
       <c r="G159" t="n">
-        <v>5.872500000000003</v>
+        <v>5.873333333333337</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4519,21 +4998,24 @@
         <v>5.82</v>
       </c>
       <c r="C160" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="D160" t="n">
         <v>5.82</v>
       </c>
       <c r="E160" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="F160" t="n">
-        <v>11409.8231</v>
+        <v>29637.3249</v>
       </c>
       <c r="G160" t="n">
-        <v>5.871500000000003</v>
+        <v>5.872500000000003</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.89</v>
+        <v>5.82</v>
       </c>
       <c r="C161" t="n">
         <v>5.82</v>
       </c>
       <c r="D161" t="n">
-        <v>5.89</v>
+        <v>5.82</v>
       </c>
       <c r="E161" t="n">
         <v>5.82</v>
       </c>
       <c r="F161" t="n">
-        <v>49.95</v>
+        <v>11409.8231</v>
       </c>
       <c r="G161" t="n">
-        <v>5.87116666666667</v>
+        <v>5.871500000000003</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.83</v>
+        <v>5.89</v>
       </c>
       <c r="C162" t="n">
-        <v>5.83</v>
+        <v>5.82</v>
       </c>
       <c r="D162" t="n">
-        <v>5.83</v>
+        <v>5.89</v>
       </c>
       <c r="E162" t="n">
-        <v>5.83</v>
+        <v>5.82</v>
       </c>
       <c r="F162" t="n">
-        <v>7000</v>
+        <v>49.95</v>
       </c>
       <c r="G162" t="n">
-        <v>5.871000000000004</v>
+        <v>5.87116666666667</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="C163" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="D163" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="E163" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="F163" t="n">
-        <v>20</v>
+        <v>7000</v>
       </c>
       <c r="G163" t="n">
-        <v>5.871666666666671</v>
+        <v>5.871000000000004</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="C164" t="n">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="D164" t="n">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="E164" t="n">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="F164" t="n">
-        <v>19.95</v>
+        <v>20</v>
       </c>
       <c r="G164" t="n">
-        <v>5.871333333333338</v>
+        <v>5.871666666666671</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.88</v>
+        <v>5.82</v>
       </c>
       <c r="C165" t="n">
-        <v>5.89</v>
+        <v>5.82</v>
       </c>
       <c r="D165" t="n">
-        <v>5.89</v>
+        <v>5.82</v>
       </c>
       <c r="E165" t="n">
-        <v>5.88</v>
+        <v>5.82</v>
       </c>
       <c r="F165" t="n">
-        <v>11670.7035</v>
+        <v>19.95</v>
       </c>
       <c r="G165" t="n">
-        <v>5.872166666666671</v>
+        <v>5.871333333333338</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,7 +5169,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="C166" t="n">
         <v>5.89</v>
@@ -4681,15 +5178,18 @@
         <v>5.89</v>
       </c>
       <c r="E166" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="F166" t="n">
-        <v>12962</v>
+        <v>11670.7035</v>
       </c>
       <c r="G166" t="n">
-        <v>5.873000000000005</v>
+        <v>5.872166666666671</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="C167" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="D167" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="E167" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="F167" t="n">
-        <v>1385.2965</v>
+        <v>12962</v>
       </c>
       <c r="G167" t="n">
-        <v>5.873666666666671</v>
+        <v>5.873000000000005</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="C168" t="n">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="D168" t="n">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="E168" t="n">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="F168" t="n">
-        <v>36829</v>
+        <v>1385.2965</v>
       </c>
       <c r="G168" t="n">
-        <v>5.873333333333338</v>
+        <v>5.873666666666671</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4762,12 +5268,15 @@
         <v>5.82</v>
       </c>
       <c r="F169" t="n">
-        <v>47962</v>
+        <v>36829</v>
       </c>
       <c r="G169" t="n">
-        <v>5.873000000000006</v>
+        <v>5.873333333333338</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4779,21 +5288,24 @@
         <v>5.82</v>
       </c>
       <c r="C170" t="n">
-        <v>5.81</v>
+        <v>5.82</v>
       </c>
       <c r="D170" t="n">
         <v>5.82</v>
       </c>
       <c r="E170" t="n">
-        <v>5.81</v>
+        <v>5.82</v>
       </c>
       <c r="F170" t="n">
-        <v>66710</v>
+        <v>47962</v>
       </c>
       <c r="G170" t="n">
-        <v>5.872500000000006</v>
+        <v>5.873000000000006</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="C171" t="n">
         <v>5.81</v>
       </c>
-      <c r="C171" t="n">
-        <v>5.87</v>
-      </c>
       <c r="D171" t="n">
-        <v>5.87</v>
+        <v>5.82</v>
       </c>
       <c r="E171" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="F171" t="n">
-        <v>66456</v>
+        <v>66710</v>
       </c>
       <c r="G171" t="n">
-        <v>5.873000000000006</v>
+        <v>5.872500000000006</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4831,21 +5346,24 @@
         <v>5.81</v>
       </c>
       <c r="C172" t="n">
-        <v>5.82</v>
+        <v>5.87</v>
       </c>
       <c r="D172" t="n">
-        <v>5.82</v>
+        <v>5.87</v>
       </c>
       <c r="E172" t="n">
-        <v>5.81</v>
+        <v>5.8</v>
       </c>
       <c r="F172" t="n">
-        <v>9984</v>
+        <v>66456</v>
       </c>
       <c r="G172" t="n">
-        <v>5.872666666666674</v>
+        <v>5.873000000000006</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.87</v>
+        <v>5.81</v>
       </c>
       <c r="C173" t="n">
-        <v>5.88</v>
+        <v>5.82</v>
       </c>
       <c r="D173" t="n">
-        <v>5.88</v>
+        <v>5.82</v>
       </c>
       <c r="E173" t="n">
-        <v>5.87</v>
+        <v>5.81</v>
       </c>
       <c r="F173" t="n">
-        <v>10</v>
+        <v>9984</v>
       </c>
       <c r="G173" t="n">
-        <v>5.87283333333334</v>
+        <v>5.872666666666674</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,7 +5401,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="C174" t="n">
         <v>5.88</v>
@@ -4889,15 +5410,18 @@
         <v>5.88</v>
       </c>
       <c r="E174" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="F174" t="n">
-        <v>136242</v>
+        <v>10</v>
       </c>
       <c r="G174" t="n">
-        <v>5.873500000000007</v>
+        <v>5.87283333333334</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4918,12 +5442,15 @@
         <v>5.88</v>
       </c>
       <c r="F175" t="n">
-        <v>0.4934</v>
+        <v>136242</v>
       </c>
       <c r="G175" t="n">
-        <v>5.874166666666674</v>
+        <v>5.873500000000007</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,24 +5459,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="C176" t="n">
-        <v>5.94</v>
+        <v>5.88</v>
       </c>
       <c r="D176" t="n">
-        <v>5.94</v>
+        <v>5.88</v>
       </c>
       <c r="E176" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="F176" t="n">
-        <v>110</v>
+        <v>0.4934</v>
       </c>
       <c r="G176" t="n">
-        <v>5.875833333333341</v>
+        <v>5.874166666666674</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,7 +5488,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.94</v>
+        <v>5.89</v>
       </c>
       <c r="C177" t="n">
         <v>5.94</v>
@@ -4967,15 +5497,18 @@
         <v>5.94</v>
       </c>
       <c r="E177" t="n">
-        <v>5.94</v>
+        <v>5.89</v>
       </c>
       <c r="F177" t="n">
-        <v>5674.3824</v>
+        <v>110</v>
       </c>
       <c r="G177" t="n">
-        <v>5.877500000000008</v>
+        <v>5.875833333333341</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4996,12 +5529,15 @@
         <v>5.94</v>
       </c>
       <c r="F178" t="n">
-        <v>153600.36</v>
+        <v>5674.3824</v>
       </c>
       <c r="G178" t="n">
-        <v>5.879166666666675</v>
+        <v>5.877500000000008</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5022,12 +5558,15 @@
         <v>5.94</v>
       </c>
       <c r="F179" t="n">
-        <v>56399.64</v>
+        <v>153600.36</v>
       </c>
       <c r="G179" t="n">
-        <v>5.880166666666676</v>
+        <v>5.879166666666675</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5048,12 +5587,15 @@
         <v>5.94</v>
       </c>
       <c r="F180" t="n">
-        <v>20</v>
+        <v>56399.64</v>
       </c>
       <c r="G180" t="n">
-        <v>5.881166666666675</v>
+        <v>5.880166666666676</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,24 +5604,27 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5.87</v>
+        <v>5.94</v>
       </c>
       <c r="C181" t="n">
-        <v>5.87</v>
+        <v>5.94</v>
       </c>
       <c r="D181" t="n">
-        <v>5.87</v>
+        <v>5.94</v>
       </c>
       <c r="E181" t="n">
-        <v>5.87</v>
+        <v>5.94</v>
       </c>
       <c r="F181" t="n">
-        <v>19.95</v>
+        <v>20</v>
       </c>
       <c r="G181" t="n">
-        <v>5.881000000000009</v>
+        <v>5.881166666666675</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>5.94</v>
+        <v>5.87</v>
       </c>
       <c r="C182" t="n">
-        <v>5.94</v>
+        <v>5.87</v>
       </c>
       <c r="D182" t="n">
-        <v>5.94</v>
+        <v>5.87</v>
       </c>
       <c r="E182" t="n">
-        <v>5.94</v>
+        <v>5.87</v>
       </c>
       <c r="F182" t="n">
-        <v>55.4444</v>
+        <v>19.95</v>
       </c>
       <c r="G182" t="n">
-        <v>5.882000000000009</v>
+        <v>5.881000000000009</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5126,12 +5674,15 @@
         <v>5.94</v>
       </c>
       <c r="F183" t="n">
-        <v>88.8888</v>
+        <v>55.4444</v>
       </c>
       <c r="G183" t="n">
-        <v>5.883333333333342</v>
+        <v>5.882000000000009</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5152,12 +5703,15 @@
         <v>5.94</v>
       </c>
       <c r="F184" t="n">
-        <v>9835.666800000001</v>
+        <v>88.8888</v>
       </c>
       <c r="G184" t="n">
-        <v>5.884666666666675</v>
+        <v>5.883333333333342</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,7 +5720,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="C185" t="n">
         <v>5.94</v>
@@ -5175,15 +5729,18 @@
         <v>5.94</v>
       </c>
       <c r="E185" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="F185" t="n">
-        <v>11681</v>
+        <v>9835.666800000001</v>
       </c>
       <c r="G185" t="n">
-        <v>5.884833333333342</v>
+        <v>5.884666666666675</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,7 +5749,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="C186" t="n">
         <v>5.94</v>
@@ -5201,15 +5758,18 @@
         <v>5.94</v>
       </c>
       <c r="E186" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="F186" t="n">
-        <v>4444.1189</v>
+        <v>11681</v>
       </c>
       <c r="G186" t="n">
         <v>5.884833333333342</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5230,12 +5790,15 @@
         <v>5.94</v>
       </c>
       <c r="F187" t="n">
-        <v>9886.7171</v>
+        <v>4444.1189</v>
       </c>
       <c r="G187" t="n">
-        <v>5.885000000000008</v>
+        <v>5.884833333333342</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5244,24 +5807,27 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>5.87</v>
+        <v>5.94</v>
       </c>
       <c r="C188" t="n">
-        <v>5.87</v>
+        <v>5.94</v>
       </c>
       <c r="D188" t="n">
-        <v>5.87</v>
+        <v>5.94</v>
       </c>
       <c r="E188" t="n">
-        <v>5.87</v>
+        <v>5.94</v>
       </c>
       <c r="F188" t="n">
-        <v>20493.5536</v>
+        <v>9886.7171</v>
       </c>
       <c r="G188" t="n">
-        <v>5.884833333333342</v>
+        <v>5.885000000000008</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="C189" t="n">
-        <v>5.94</v>
+        <v>5.87</v>
       </c>
       <c r="D189" t="n">
-        <v>5.94</v>
+        <v>5.87</v>
       </c>
       <c r="E189" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="F189" t="n">
-        <v>56391</v>
+        <v>20493.5536</v>
       </c>
       <c r="G189" t="n">
         <v>5.884833333333342</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5296,24 +5865,27 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="C190" t="n">
-        <v>5.86</v>
+        <v>5.94</v>
       </c>
       <c r="D190" t="n">
-        <v>5.87</v>
+        <v>5.94</v>
       </c>
       <c r="E190" t="n">
         <v>5.86</v>
       </c>
       <c r="F190" t="n">
-        <v>78444.121</v>
+        <v>56391</v>
       </c>
       <c r="G190" t="n">
-        <v>5.884166666666675</v>
+        <v>5.884833333333342</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="C191" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="D191" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="E191" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="F191" t="n">
-        <v>221.9224283305228</v>
+        <v>78444.121</v>
       </c>
       <c r="G191" t="n">
-        <v>5.884500000000008</v>
+        <v>5.884166666666675</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5360,12 +5935,15 @@
         <v>5.93</v>
       </c>
       <c r="F192" t="n">
-        <v>13692.55857166948</v>
+        <v>221.9224283305228</v>
       </c>
       <c r="G192" t="n">
-        <v>5.885500000000008</v>
+        <v>5.884500000000008</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5374,24 +5952,27 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="C193" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="D193" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="E193" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="F193" t="n">
-        <v>1400</v>
+        <v>13692.55857166948</v>
       </c>
       <c r="G193" t="n">
-        <v>5.886166666666676</v>
+        <v>5.885500000000008</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5412,12 +5993,15 @@
         <v>5.94</v>
       </c>
       <c r="F194" t="n">
-        <v>208485.0168</v>
+        <v>1400</v>
       </c>
       <c r="G194" t="n">
-        <v>5.887500000000008</v>
+        <v>5.886166666666676</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5438,12 +6022,15 @@
         <v>5.94</v>
       </c>
       <c r="F195" t="n">
-        <v>721.8855</v>
+        <v>208485.0168</v>
       </c>
       <c r="G195" t="n">
-        <v>5.888833333333341</v>
+        <v>5.887500000000008</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5464,12 +6051,15 @@
         <v>5.94</v>
       </c>
       <c r="F196" t="n">
-        <v>4868.5102</v>
+        <v>721.8855</v>
       </c>
       <c r="G196" t="n">
-        <v>5.889000000000008</v>
+        <v>5.888833333333341</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5490,12 +6080,15 @@
         <v>5.94</v>
       </c>
       <c r="F197" t="n">
-        <v>193.3249</v>
+        <v>4868.5102</v>
       </c>
       <c r="G197" t="n">
-        <v>5.890333333333341</v>
+        <v>5.889000000000008</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5516,12 +6109,15 @@
         <v>5.94</v>
       </c>
       <c r="F198" t="n">
-        <v>60000</v>
+        <v>193.3249</v>
       </c>
       <c r="G198" t="n">
-        <v>5.891500000000008</v>
+        <v>5.890333333333341</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,24 +6126,27 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>5.95</v>
+        <v>5.94</v>
       </c>
       <c r="C199" t="n">
-        <v>5.95</v>
+        <v>5.94</v>
       </c>
       <c r="D199" t="n">
-        <v>5.95</v>
+        <v>5.94</v>
       </c>
       <c r="E199" t="n">
-        <v>5.95</v>
+        <v>5.94</v>
       </c>
       <c r="F199" t="n">
-        <v>10</v>
+        <v>60000</v>
       </c>
       <c r="G199" t="n">
-        <v>5.891833333333341</v>
+        <v>5.891500000000008</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5559,21 +6158,24 @@
         <v>5.95</v>
       </c>
       <c r="C200" t="n">
-        <v>5.96</v>
+        <v>5.95</v>
       </c>
       <c r="D200" t="n">
-        <v>5.96</v>
+        <v>5.95</v>
       </c>
       <c r="E200" t="n">
         <v>5.95</v>
       </c>
       <c r="F200" t="n">
-        <v>4925</v>
+        <v>10</v>
       </c>
       <c r="G200" t="n">
-        <v>5.893500000000007</v>
+        <v>5.891833333333341</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5582,7 +6184,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>5.96</v>
+        <v>5.95</v>
       </c>
       <c r="C201" t="n">
         <v>5.96</v>
@@ -5591,15 +6193,18 @@
         <v>5.96</v>
       </c>
       <c r="E201" t="n">
-        <v>5.96</v>
+        <v>5.95</v>
       </c>
       <c r="F201" t="n">
-        <v>41946.3087</v>
+        <v>4925</v>
       </c>
       <c r="G201" t="n">
-        <v>5.894000000000006</v>
+        <v>5.893500000000007</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5611,21 +6216,24 @@
         <v>5.96</v>
       </c>
       <c r="C202" t="n">
-        <v>6</v>
+        <v>5.96</v>
       </c>
       <c r="D202" t="n">
-        <v>6</v>
+        <v>5.96</v>
       </c>
       <c r="E202" t="n">
         <v>5.96</v>
       </c>
       <c r="F202" t="n">
-        <v>53877.5071</v>
+        <v>41946.3087</v>
       </c>
       <c r="G202" t="n">
-        <v>5.89633333333334</v>
+        <v>5.894000000000006</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5634,24 +6242,27 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>6.01</v>
+        <v>5.96</v>
       </c>
       <c r="C203" t="n">
-        <v>6.02</v>
+        <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>6.02</v>
+        <v>6</v>
       </c>
       <c r="E203" t="n">
-        <v>6.01</v>
+        <v>5.96</v>
       </c>
       <c r="F203" t="n">
-        <v>366745.9468</v>
+        <v>53877.5071</v>
       </c>
       <c r="G203" t="n">
-        <v>5.897833333333339</v>
+        <v>5.89633333333334</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5660,7 +6271,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>6.02</v>
+        <v>6.01</v>
       </c>
       <c r="C204" t="n">
         <v>6.02</v>
@@ -5669,15 +6280,18 @@
         <v>6.02</v>
       </c>
       <c r="E204" t="n">
-        <v>6.02</v>
+        <v>6.01</v>
       </c>
       <c r="F204" t="n">
-        <v>83651</v>
+        <v>366745.9468</v>
       </c>
       <c r="G204" t="n">
-        <v>5.900500000000005</v>
+        <v>5.897833333333339</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5698,12 +6312,15 @@
         <v>6.02</v>
       </c>
       <c r="F205" t="n">
-        <v>71494</v>
+        <v>83651</v>
       </c>
       <c r="G205" t="n">
-        <v>5.902166666666671</v>
+        <v>5.900500000000005</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5715,21 +6332,24 @@
         <v>6.02</v>
       </c>
       <c r="C206" t="n">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
       <c r="D206" t="n">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
       <c r="E206" t="n">
         <v>6.02</v>
       </c>
       <c r="F206" t="n">
-        <v>156093</v>
+        <v>71494</v>
       </c>
       <c r="G206" t="n">
-        <v>5.905000000000004</v>
+        <v>5.902166666666671</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5738,24 +6358,27 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="C207" t="n">
         <v>6.03</v>
       </c>
-      <c r="C207" t="n">
-        <v>6.04</v>
-      </c>
       <c r="D207" t="n">
-        <v>6.04</v>
+        <v>6.03</v>
       </c>
       <c r="E207" t="n">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
       <c r="F207" t="n">
-        <v>20000</v>
+        <v>156093</v>
       </c>
       <c r="G207" t="n">
-        <v>5.906666666666671</v>
+        <v>5.905000000000004</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5764,24 +6387,27 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C208" t="n">
         <v>6.04</v>
       </c>
-      <c r="C208" t="n">
-        <v>6.05</v>
-      </c>
       <c r="D208" t="n">
-        <v>6.05</v>
+        <v>6.04</v>
       </c>
       <c r="E208" t="n">
-        <v>6.04</v>
+        <v>6.03</v>
       </c>
       <c r="F208" t="n">
-        <v>141593.2148</v>
+        <v>20000</v>
       </c>
       <c r="G208" t="n">
-        <v>5.908500000000005</v>
+        <v>5.906666666666671</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5790,7 +6416,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>6.05</v>
+        <v>6.04</v>
       </c>
       <c r="C209" t="n">
         <v>6.05</v>
@@ -5799,15 +6425,18 @@
         <v>6.05</v>
       </c>
       <c r="E209" t="n">
-        <v>6.05</v>
+        <v>6.04</v>
       </c>
       <c r="F209" t="n">
-        <v>48434.7698</v>
+        <v>141593.2148</v>
       </c>
       <c r="G209" t="n">
-        <v>5.910666666666671</v>
+        <v>5.908500000000005</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5828,13 +6457,16 @@
         <v>6.05</v>
       </c>
       <c r="F210" t="n">
-        <v>858855.6019</v>
+        <v>48434.7698</v>
       </c>
       <c r="G210" t="n">
-        <v>5.912833333333338</v>
+        <v>5.910666666666671</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -5854,12 +6486,15 @@
         <v>6.05</v>
       </c>
       <c r="F211" t="n">
-        <v>115728.0578</v>
+        <v>858855.6019</v>
       </c>
       <c r="G211" t="n">
-        <v>5.915833333333338</v>
+        <v>5.912833333333338</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5880,12 +6515,15 @@
         <v>6.05</v>
       </c>
       <c r="F212" t="n">
-        <v>66555</v>
+        <v>115728.0578</v>
       </c>
       <c r="G212" t="n">
-        <v>5.918500000000005</v>
+        <v>5.915833333333338</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5903,15 +6541,18 @@
         <v>6.05</v>
       </c>
       <c r="E213" t="n">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="F213" t="n">
-        <v>85583</v>
+        <v>66555</v>
       </c>
       <c r="G213" t="n">
-        <v>5.921666666666671</v>
+        <v>5.918500000000005</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5923,7 +6564,7 @@
         <v>6.05</v>
       </c>
       <c r="C214" t="n">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="D214" t="n">
         <v>6.05</v>
@@ -5932,12 +6573,15 @@
         <v>6.04</v>
       </c>
       <c r="F214" t="n">
-        <v>54674</v>
+        <v>85583</v>
       </c>
       <c r="G214" t="n">
-        <v>5.924666666666671</v>
+        <v>5.921666666666671</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5949,21 +6593,24 @@
         <v>6.05</v>
       </c>
       <c r="C215" t="n">
-        <v>6.05</v>
+        <v>6.04</v>
       </c>
       <c r="D215" t="n">
         <v>6.05</v>
       </c>
       <c r="E215" t="n">
-        <v>6.05</v>
+        <v>6.04</v>
       </c>
       <c r="F215" t="n">
-        <v>10</v>
+        <v>54674</v>
       </c>
       <c r="G215" t="n">
-        <v>5.928666666666672</v>
+        <v>5.924666666666671</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5972,7 +6619,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="C216" t="n">
         <v>6.05</v>
@@ -5981,15 +6628,18 @@
         <v>6.05</v>
       </c>
       <c r="E216" t="n">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="F216" t="n">
-        <v>51345</v>
+        <v>10</v>
       </c>
       <c r="G216" t="n">
-        <v>5.932500000000005</v>
+        <v>5.928666666666672</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5998,7 +6648,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>6.05</v>
+        <v>6.04</v>
       </c>
       <c r="C217" t="n">
         <v>6.05</v>
@@ -6010,12 +6660,15 @@
         <v>6.04</v>
       </c>
       <c r="F217" t="n">
-        <v>91071.0281</v>
+        <v>51345</v>
       </c>
       <c r="G217" t="n">
-        <v>5.935166666666673</v>
+        <v>5.932500000000005</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6033,15 +6686,18 @@
         <v>6.05</v>
       </c>
       <c r="E218" t="n">
-        <v>6.05</v>
+        <v>6.04</v>
       </c>
       <c r="F218" t="n">
-        <v>31535</v>
+        <v>91071.0281</v>
       </c>
       <c r="G218" t="n">
-        <v>5.939000000000006</v>
+        <v>5.935166666666673</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,7 +6706,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>6.02</v>
+        <v>6.05</v>
       </c>
       <c r="C219" t="n">
         <v>6.05</v>
@@ -6059,15 +6715,18 @@
         <v>6.05</v>
       </c>
       <c r="E219" t="n">
-        <v>6.02</v>
+        <v>6.05</v>
       </c>
       <c r="F219" t="n">
-        <v>11111</v>
+        <v>31535</v>
       </c>
       <c r="G219" t="n">
-        <v>5.943000000000007</v>
+        <v>5.939000000000006</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,7 +6735,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>6.05</v>
+        <v>6.02</v>
       </c>
       <c r="C220" t="n">
         <v>6.05</v>
@@ -6085,15 +6744,18 @@
         <v>6.05</v>
       </c>
       <c r="E220" t="n">
-        <v>6.05</v>
+        <v>6.02</v>
       </c>
       <c r="F220" t="n">
-        <v>26979</v>
+        <v>11111</v>
       </c>
       <c r="G220" t="n">
-        <v>5.94683333333334</v>
+        <v>5.943000000000007</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6114,12 +6776,15 @@
         <v>6.05</v>
       </c>
       <c r="F221" t="n">
-        <v>58572</v>
+        <v>26979</v>
       </c>
       <c r="G221" t="n">
-        <v>5.950666666666674</v>
+        <v>5.94683333333334</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6140,12 +6805,15 @@
         <v>6.05</v>
       </c>
       <c r="F222" t="n">
-        <v>34333</v>
+        <v>58572</v>
       </c>
       <c r="G222" t="n">
-        <v>5.954333333333341</v>
+        <v>5.950666666666674</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6166,12 +6834,15 @@
         <v>6.05</v>
       </c>
       <c r="F223" t="n">
-        <v>105645</v>
+        <v>34333</v>
       </c>
       <c r="G223" t="n">
-        <v>5.957166666666675</v>
+        <v>5.954333333333341</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6192,12 +6863,15 @@
         <v>6.05</v>
       </c>
       <c r="F224" t="n">
-        <v>71683</v>
+        <v>105645</v>
       </c>
       <c r="G224" t="n">
-        <v>5.961000000000008</v>
+        <v>5.957166666666675</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6218,532 +6892,15 @@
         <v>6.05</v>
       </c>
       <c r="F225" t="n">
-        <v>78505</v>
+        <v>71683</v>
       </c>
       <c r="G225" t="n">
-        <v>5.963666666666675</v>
+        <v>5.961000000000008</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C226" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D226" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E226" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F226" t="n">
-        <v>45045</v>
-      </c>
-      <c r="G226" t="n">
-        <v>5.966333333333342</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C227" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D227" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E227" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F227" t="n">
-        <v>131714.985</v>
-      </c>
-      <c r="G227" t="n">
-        <v>5.969166666666676</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="C228" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="D228" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="E228" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="F228" t="n">
-        <v>410</v>
-      </c>
-      <c r="G228" t="n">
-        <v>5.973666666666675</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="C229" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D229" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E229" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="F229" t="n">
-        <v>7000</v>
-      </c>
-      <c r="G229" t="n">
-        <v>5.978333333333342</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="C230" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D230" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E230" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F230" t="n">
-        <v>12233.2786</v>
-      </c>
-      <c r="G230" t="n">
-        <v>5.983166666666676</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="C231" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="D231" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="E231" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="F231" t="n">
-        <v>1111</v>
-      </c>
-      <c r="G231" t="n">
-        <v>5.986833333333342</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C232" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D232" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E232" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F232" t="n">
-        <v>25334.755</v>
-      </c>
-      <c r="G232" t="n">
-        <v>5.99050000000001</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="C233" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="D233" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="E233" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="F233" t="n">
-        <v>59301.257</v>
-      </c>
-      <c r="G233" t="n">
-        <v>5.99400000000001</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C234" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D234" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E234" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F234" t="n">
-        <v>13270</v>
-      </c>
-      <c r="G234" t="n">
-        <v>5.996833333333343</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C235" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D235" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E235" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F235" t="n">
-        <v>47878</v>
-      </c>
-      <c r="G235" t="n">
-        <v>5.999000000000009</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C236" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="D236" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="E236" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F236" t="n">
-        <v>30013</v>
-      </c>
-      <c r="G236" t="n">
-        <v>6.001500000000009</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="C237" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="D237" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="E237" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="F237" t="n">
-        <v>95855</v>
-      </c>
-      <c r="G237" t="n">
-        <v>6.003666666666676</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="C238" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D238" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="E238" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F238" t="n">
-        <v>33</v>
-      </c>
-      <c r="G238" t="n">
-        <v>6.005500000000009</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="C239" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="D239" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="E239" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="F239" t="n">
-        <v>41</v>
-      </c>
-      <c r="G239" t="n">
-        <v>6.007833333333342</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="C240" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D240" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="E240" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="F240" t="n">
-        <v>469.6477</v>
-      </c>
-      <c r="G240" t="n">
-        <v>6.009166666666675</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="C241" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="D241" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="E241" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="F241" t="n">
-        <v>10</v>
-      </c>
-      <c r="G241" t="n">
-        <v>6.012666666666675</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="C242" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="D242" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="E242" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="F242" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G242" t="n">
-        <v>6.014833333333342</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="C243" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="D243" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="E243" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="F243" t="n">
-        <v>44</v>
-      </c>
-      <c r="G243" t="n">
-        <v>6.017166666666674</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="C244" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="D244" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="E244" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="F244" t="n">
-        <v>440</v>
-      </c>
-      <c r="G244" t="n">
-        <v>6.019666666666675</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="C245" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="D245" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="E245" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="F245" t="n">
-        <v>11</v>
-      </c>
-      <c r="G245" t="n">
-        <v>6.022000000000007</v>
-      </c>
-      <c r="H245" t="n">
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
